--- a/Database/Database Design for Property Management System.xlsx
+++ b/Database/Database Design for Property Management System.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuwen/IDEAProjects/PMS-Server/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuwen/IDEAProjects/PMS-Server/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF5FDFD-9EDA-4F49-8583-CC02FD1BE7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB977AB-BE6E-2B4E-9AC4-21B3ED9DABBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" activeTab="1" xr2:uid="{1E46E136-B0E1-5C4B-8513-1F9911BEFF5B}"/>
+    <workbookView xWindow="5000" yWindow="500" windowWidth="19220" windowHeight="15960" activeTab="2" xr2:uid="{1E46E136-B0E1-5C4B-8513-1F9911BEFF5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="2" r:id="rId1"/>
     <sheet name="property_manager" sheetId="1" r:id="rId2"/>
+    <sheet name="report_repairs" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="75">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,6 +234,104 @@
   <si>
     <t>INSERT into property_manager(username,password,name,job_title,office_place,phone,wechat,email)
 VALUES(#{username},#{password},#{name},#{job_title},#{office_place},#{phone},#{wechat},#{email})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>report_repairs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报修维修表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报修人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报修人电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报修时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结案时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reporter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reporter_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>report_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>closure_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>reporter, reporter_phone, report_time, repair_type, repair_location, repair_description, serviceman, repair_status, closure_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT into property_manager ( reporter, reporter_phone, report_time, repair_type, repair_location, repair_description, serviceman, repair_status) VALUES (#{reporter},   #{reporter_phone}, #{report_time}, #{repair_type}, #{repair_location}, #{repair_description}, #{serviceman}, #{repair_status})</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -240,7 +339,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -300,6 +399,14 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -432,7 +539,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -463,59 +570,104 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -835,7 +987,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScale="215" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -847,18 +999,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
@@ -866,13 +1018,13 @@
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="14" t="s">
         <v>36</v>
       </c>
     </row>
@@ -888,9 +1040,15 @@
       <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="9"/>
@@ -967,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC19279-C78F-4D4A-AFCC-BC068763F9E0}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:H1"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -982,60 +1140,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1">
       <c r="A5" s="6" t="s">
@@ -1133,7 +1291,7 @@
       <c r="A9" s="7">
         <v>4</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1142,12 +1300,12 @@
       <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="11" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1155,7 +1313,7 @@
       <c r="A10" s="7">
         <v>5</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1164,12 +1322,12 @@
       <c r="D10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="11" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1284,38 +1442,38 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="16" customHeight="1">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="15" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1334,4 +1492,398 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9477A7A3-655E-6A4D-B145-0712012DFE80}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="171" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="1:8" ht="16" customHeight="1">
+      <c r="A3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="1:8" ht="17">
+      <c r="A6" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17">
+      <c r="A7" s="32">
+        <v>1</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17">
+      <c r="A8" s="32">
+        <v>2</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17">
+      <c r="A9" s="32">
+        <v>3</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17">
+      <c r="A10" s="32">
+        <v>4</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17">
+      <c r="A11" s="32">
+        <v>5</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17">
+      <c r="A12" s="32">
+        <v>6</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17">
+      <c r="A13" s="32">
+        <v>7</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17">
+      <c r="A14" s="32">
+        <v>8</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17">
+      <c r="A15" s="32">
+        <v>9</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17">
+      <c r="A16" s="32">
+        <v>10</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16" customHeight="1">
+      <c r="A17" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:H4"/>
+    <mergeCell ref="A17:B20"/>
+    <mergeCell ref="C17:H20"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/Database/Database Design for Property Management System.xlsx
+++ b/Database/Database Design for Property Management System.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuwen/IDEAProjects/PMS-Server/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB977AB-BE6E-2B4E-9AC4-21B3ED9DABBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1395B9EE-839A-3746-B60B-6D76210F91E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5000" yWindow="500" windowWidth="19220" windowHeight="15960" activeTab="2" xr2:uid="{1E46E136-B0E1-5C4B-8513-1F9911BEFF5B}"/>
+    <workbookView xWindow="28800" yWindow="1980" windowWidth="33600" windowHeight="18900" activeTab="3" xr2:uid="{1E46E136-B0E1-5C4B-8513-1F9911BEFF5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="2" r:id="rId1"/>
     <sheet name="property_manager" sheetId="1" r:id="rId2"/>
     <sheet name="report_repairs" sheetId="3" r:id="rId3"/>
+    <sheet name="proprietor" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="88">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -332,6 +333,58 @@
   </si>
   <si>
     <t>INSERT into property_manager ( reporter, reporter_phone, report_time, repair_type, repair_location, repair_description, serviceman, repair_status) VALUES (#{reporter},   #{reporter_phone}, #{report_time}, #{repair_type}, #{repair_location}, #{repair_description}, #{serviceman}, #{repair_status})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proprietor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业主信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_in_family</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>door</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>称呼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门牌号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭角色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,7 +592,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -585,6 +638,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -630,44 +707,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -987,7 +1043,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScale="215" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -999,18 +1055,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
@@ -1032,9 +1088,15 @@
       <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
@@ -1043,7 +1105,7 @@
       <c r="B5" s="9">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="43" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="14" t="s">
@@ -1116,6 +1178,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C3" location="property_manager!A1" display="property_manager" xr:uid="{2DB35E35-000A-6446-AB7F-1B313D52306E}"/>
+    <hyperlink ref="C5" location="report_repairs!A1" display="report_repairs" xr:uid="{EC3024C8-1F80-B546-95CA-6828A1FB91C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1140,60 +1203,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="27" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1">
       <c r="A5" s="6" t="s">
@@ -1442,38 +1505,38 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="16" customHeight="1">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="18" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="23"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="31"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="26"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1498,8 +1561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9477A7A3-655E-6A4D-B145-0712012DFE80}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="171" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:H1"/>
+    <sheetView zoomScale="171" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1514,376 +1577,759 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8" ht="16" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8" ht="17">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17">
-      <c r="A7" s="32">
+      <c r="A7" s="16">
         <v>1</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="33" t="s">
+      <c r="D7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="35" t="s">
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17">
-      <c r="A8" s="32">
+      <c r="A8" s="16">
         <v>2</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35" t="s">
+      <c r="D8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17">
-      <c r="A9" s="32">
+      <c r="A9" s="16">
         <v>3</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="35" t="s">
+      <c r="D9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17">
-      <c r="A10" s="32">
+      <c r="A10" s="16">
         <v>4</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="35" t="s">
+      <c r="E10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17">
-      <c r="A11" s="32">
+      <c r="A11" s="16">
         <v>5</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="35" t="s">
+      <c r="E11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="19" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17">
-      <c r="A12" s="32">
+      <c r="A12" s="16">
         <v>6</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35" t="s">
+      <c r="E12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17">
-      <c r="A13" s="32">
+      <c r="A13" s="16">
         <v>7</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35" t="s">
+      <c r="E13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17">
-      <c r="A14" s="32">
+      <c r="A14" s="16">
         <v>8</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35" t="s">
+      <c r="E14" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17">
-      <c r="A15" s="32">
+      <c r="A15" s="16">
         <v>9</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="35" t="s">
+      <c r="E15" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17">
-      <c r="A16" s="32">
+      <c r="A16" s="16">
         <v>10</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="35" t="s">
+      <c r="E16" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16" customHeight="1">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="30" t="s">
+      <c r="B17" s="36"/>
+      <c r="C17" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:H4"/>
     <mergeCell ref="A17:B20"/>
     <mergeCell ref="C17:H20"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E60CDE2-1BD6-FB41-95C5-7CED08BD3E80}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="40"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="34"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+    </row>
+    <row r="6" spans="1:8" ht="34">
+      <c r="A6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17">
+      <c r="A7" s="16">
+        <v>1</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17">
+      <c r="A8" s="16">
+        <v>2</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17">
+      <c r="A9" s="16">
+        <v>3</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17">
+      <c r="A10" s="16">
+        <v>4</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17">
+      <c r="A11" s="16">
+        <v>5</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17">
+      <c r="A12" s="16">
+        <v>6</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17">
+      <c r="A13" s="16">
+        <v>7</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17">
+      <c r="A14" s="16">
+        <v>8</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17">
+      <c r="A15" s="16">
+        <v>9</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17">
+      <c r="A16" s="16">
+        <v>10</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="A17:B20"/>
+    <mergeCell ref="C17:H20"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:H4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Database/Database Design for Property Management System.xlsx
+++ b/Database/Database Design for Property Management System.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuwen/IDEAProjects/PMS-Server/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1395B9EE-839A-3746-B60B-6D76210F91E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9592AB04-8CBE-CE4F-BAC8-90AF4B2C23C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="1980" windowWidth="33600" windowHeight="18900" activeTab="3" xr2:uid="{1E46E136-B0E1-5C4B-8513-1F9911BEFF5B}"/>
+    <workbookView xWindow="29620" yWindow="2480" windowWidth="23480" windowHeight="16820" activeTab="3" xr2:uid="{1E46E136-B0E1-5C4B-8513-1F9911BEFF5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="90">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -344,6 +344,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>building</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>role_in_family</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -385,6 +389,10 @@
   </si>
   <si>
     <t>家庭角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1953,10 +1961,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E60CDE2-1BD6-FB41-95C5-7CED08BD3E80}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2073,7 +2081,7 @@
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
       <c r="H7" s="19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17">
@@ -2095,7 +2103,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17">
@@ -2147,7 +2155,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>32</v>
@@ -2161,7 +2169,7 @@
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17">
@@ -2183,7 +2191,7 @@
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17">
@@ -2205,7 +2213,7 @@
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17">
@@ -2227,7 +2235,7 @@
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17">
@@ -2235,10 +2243,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>13</v>
@@ -2249,21 +2257,21 @@
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="19" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17">
       <c r="A16" s="16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>13</v>
@@ -2274,20 +2282,32 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="36" t="s">
+    <row r="17" spans="1:8" ht="17">
+      <c r="A17" s="16">
+        <v>10</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="42"/>
       <c r="D18" s="42"/>
@@ -2316,12 +2336,22 @@
       <c r="G20" s="42"/>
       <c r="H20" s="42"/>
     </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:H5"/>
-    <mergeCell ref="A17:B20"/>
-    <mergeCell ref="C17:H20"/>
+    <mergeCell ref="A18:B21"/>
+    <mergeCell ref="C18:H21"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="A2:B2"/>
@@ -2331,5 +2361,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Database/Database Design for Property Management System.xlsx
+++ b/Database/Database Design for Property Management System.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuwen/IDEAProjects/PMS-Server/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9592AB04-8CBE-CE4F-BAC8-90AF4B2C23C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF5DCDA-29FB-BC44-88DD-2AEE923142AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29620" yWindow="2480" windowWidth="23480" windowHeight="16820" activeTab="3" xr2:uid="{1E46E136-B0E1-5C4B-8513-1F9911BEFF5B}"/>
+    <workbookView xWindow="32600" yWindow="2880" windowWidth="23480" windowHeight="16820" activeTab="2" xr2:uid="{1E46E136-B0E1-5C4B-8513-1F9911BEFF5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="2" r:id="rId1"/>
@@ -670,6 +670,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -729,9 +732,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1063,18 +1063,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
@@ -1113,7 +1113,7 @@
       <c r="B5" s="9">
         <v>1</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="23" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="14" t="s">
@@ -1211,60 +1211,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="35" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="35" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1">
       <c r="A5" s="6" t="s">
@@ -1513,38 +1513,38 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="16" customHeight="1">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="26" t="s">
+      <c r="B16" s="25"/>
+      <c r="C16" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="29"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="31"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="32"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="34"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1569,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9477A7A3-655E-6A4D-B145-0712012DFE80}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView zoomScale="171" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1585,70 +1585,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8" ht="16" customHeight="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="40"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="34"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="1:8" ht="17">
       <c r="A6" s="15" t="s">
@@ -1897,51 +1897,53 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="16" customHeight="1">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="42" t="s">
+      <c r="B17" s="37"/>
+      <c r="C17" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A17:B20"/>
+    <mergeCell ref="C17:H20"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="A2:B2"/>
@@ -1950,8 +1952,6 @@
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:H4"/>
-    <mergeCell ref="A17:B20"/>
-    <mergeCell ref="C17:H20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1963,8 +1963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E60CDE2-1BD6-FB41-95C5-7CED08BD3E80}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A6" zoomScale="176" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1973,68 +1973,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="40"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="34"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="1:8" ht="34">
       <c r="A6" s="15" t="s">
@@ -2305,46 +2305,46 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Database/Database Design for Property Management System.xlsx
+++ b/Database/Database Design for Property Management System.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuwen/IDEAProjects/PMS-Server/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF5DCDA-29FB-BC44-88DD-2AEE923142AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E92B3EB-9DC1-3847-AB37-9E6F6EBFBA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32600" yWindow="2880" windowWidth="23480" windowHeight="16820" activeTab="2" xr2:uid="{1E46E136-B0E1-5C4B-8513-1F9911BEFF5B}"/>
+    <workbookView xWindow="28800" yWindow="2480" windowWidth="18960" windowHeight="16820" activeTab="4" xr2:uid="{1E46E136-B0E1-5C4B-8513-1F9911BEFF5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="2" r:id="rId1"/>
     <sheet name="property_manager" sheetId="1" r:id="rId2"/>
     <sheet name="report_repairs" sheetId="3" r:id="rId3"/>
     <sheet name="proprietor" sheetId="4" r:id="rId4"/>
+    <sheet name="express_delivery" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="107">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -393,6 +394,73 @@
   </si>
   <si>
     <t>楼号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username,password,name,title,email,wechat,building,door,role_in_family</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT into property_manager (username, password, name, title, email, wechat, building, door, role_in_family)  VALUES  (#{username},   #{password}, #{name}, #{title}, #{rion}, #{email}, #{wechat}, #{building}, #{door}, #{role_in_family},)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>express_delivery</t>
+  </si>
+  <si>
+    <t>express_delivery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proprietor_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivery_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivery_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivery_location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业主ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取件人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递代领表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取件码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proprietor_id, delivery_type,delivery_location, delivery_code, serviceman, create_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT into property_manager (proprietor_id, delivery_type, delivery_location, serviceman, create_date)  VALUES  (#{proprietor_id},   #{delivery_type},  #{delivery_location},#{delivery_code}, #{serviceman}, #{create_date})</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +556,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -591,6 +659,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -600,7 +711,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -637,42 +748,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -716,6 +830,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -730,8 +847,32 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1051,7 +1192,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScale="215" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1063,73 +1204,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:6" ht="17" thickBot="1">
+      <c r="A3" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="49">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="48" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:6" ht="17" thickBot="1">
+      <c r="A4" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="52">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="51" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="46">
         <v>1</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="45" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="9"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="B6" s="21">
+        <v>2</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8"/>
@@ -1187,6 +1334,8 @@
   <hyperlinks>
     <hyperlink ref="C3" location="property_manager!A1" display="property_manager" xr:uid="{2DB35E35-000A-6446-AB7F-1B313D52306E}"/>
     <hyperlink ref="C5" location="report_repairs!A1" display="report_repairs" xr:uid="{EC3024C8-1F80-B546-95CA-6828A1FB91C1}"/>
+    <hyperlink ref="C4" location="proprietor!A1" display="proprietor" xr:uid="{564FA2AF-4BBB-DB4D-B9FE-8FA62A954D21}"/>
+    <hyperlink ref="C6" location="express_delivery!A1" display="express_delivery" xr:uid="{F0594A43-3E74-6F4B-8DE0-CE2D3A3E927F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1197,7 +1346,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1211,60 +1360,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="36" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="36" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="36" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1">
       <c r="A5" s="6" t="s">
@@ -1513,38 +1662,38 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="16" customHeight="1">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="27" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="32"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="33"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="35"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1569,7 +1718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9477A7A3-655E-6A4D-B145-0712012DFE80}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
+    <sheetView zoomScale="171" workbookViewId="0">
       <selection activeCell="C17" sqref="C17:H20"/>
     </sheetView>
   </sheetViews>
@@ -1585,360 +1734,360 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:8" ht="16" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="27" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:8" ht="17">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17">
-      <c r="A7" s="16">
+      <c r="A7" s="13">
         <v>1</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="17" t="s">
+      <c r="D7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19" t="s">
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17">
-      <c r="A8" s="16">
+      <c r="A8" s="13">
         <v>2</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19" t="s">
+      <c r="D8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17">
-      <c r="A9" s="16">
+      <c r="A9" s="13">
         <v>3</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19" t="s">
+      <c r="D9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17">
-      <c r="A10" s="16">
+      <c r="A10" s="13">
         <v>4</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="19" t="s">
+      <c r="E10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17">
-      <c r="A11" s="16">
+      <c r="A11" s="13">
         <v>5</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="19" t="s">
+      <c r="E11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="16" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17">
-      <c r="A12" s="16">
+      <c r="A12" s="13">
         <v>6</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19" t="s">
+      <c r="E12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17">
-      <c r="A13" s="16">
+      <c r="A13" s="13">
         <v>7</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19" t="s">
+      <c r="E13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17">
-      <c r="A14" s="16">
+      <c r="A14" s="13">
         <v>8</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19" t="s">
+      <c r="E14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17">
-      <c r="A15" s="16">
+      <c r="A15" s="13">
         <v>9</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19" t="s">
+      <c r="E15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17">
-      <c r="A16" s="16">
+      <c r="A16" s="13">
         <v>10</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19" t="s">
+      <c r="E16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16" customHeight="1">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="43" t="s">
+      <c r="B17" s="38"/>
+      <c r="C17" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1963,8 +2112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E60CDE2-1BD6-FB41-95C5-7CED08BD3E80}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="176" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:H21"/>
+    <sheetView topLeftCell="A14" zoomScale="176" workbookViewId="0">
+      <selection activeCell="C18" sqref="A1:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1973,378 +2122,382 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:8" ht="34">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17">
-      <c r="A7" s="16">
+      <c r="A7" s="13">
         <v>1</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="17" t="s">
+      <c r="D7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19" t="s">
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17">
-      <c r="A8" s="16">
+      <c r="A8" s="13">
         <v>2</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19" t="s">
+      <c r="D8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17">
-      <c r="A9" s="16">
+      <c r="A9" s="13">
         <v>3</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19" t="s">
+      <c r="D9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17">
-      <c r="A10" s="16">
+      <c r="A10" s="13">
         <v>4</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="19" t="s">
+      <c r="E10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17">
-      <c r="A11" s="16">
+      <c r="A11" s="13">
         <v>5</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="19" t="s">
+      <c r="D11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17">
-      <c r="A12" s="16">
+      <c r="A12" s="13">
         <v>6</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="19" t="s">
+      <c r="E12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17">
-      <c r="A13" s="16">
+      <c r="A13" s="13">
         <v>7</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19" t="s">
+      <c r="E13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17">
-      <c r="A14" s="16">
+      <c r="A14" s="13">
         <v>8</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19" t="s">
+      <c r="E14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17">
-      <c r="A15" s="16">
+      <c r="A15" s="13">
         <v>9</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19" t="s">
+      <c r="D15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17">
-      <c r="A16" s="16">
+      <c r="A16" s="13">
         <v>9</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19" t="s">
+      <c r="D16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17">
-      <c r="A17" s="16">
+      <c r="A17" s="13">
         <v>10</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="19" t="s">
+      <c r="E17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2363,4 +2516,321 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645DC217-DAFE-FD4D-89FF-ECC31099C583}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="36"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+    </row>
+    <row r="6" spans="1:8" ht="34">
+      <c r="A6" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17">
+      <c r="A7" s="13">
+        <v>1</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17">
+      <c r="A8" s="13">
+        <v>2</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17">
+      <c r="A9" s="13">
+        <v>3</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17">
+      <c r="A10" s="13">
+        <v>4</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17">
+      <c r="A11" s="13">
+        <v>5</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17">
+      <c r="A12" s="13">
+        <v>6</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17">
+      <c r="A13" s="13">
+        <v>7</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="A14:B17"/>
+    <mergeCell ref="C14:H17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:H4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Database/Database Design for Property Management System.xlsx
+++ b/Database/Database Design for Property Management System.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuwen/IDEAProjects/PMS-Server/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E92B3EB-9DC1-3847-AB37-9E6F6EBFBA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857567AC-B0E3-2D41-ADD0-18B424F57393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="2480" windowWidth="18960" windowHeight="16820" activeTab="4" xr2:uid="{1E46E136-B0E1-5C4B-8513-1F9911BEFF5B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="109">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -456,11 +456,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>proprietor_id, delivery_type,delivery_location, delivery_code, serviceman, create_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT into property_manager (proprietor_id, delivery_type, delivery_location, serviceman, create_date)  VALUES  (#{proprietor_id},   #{delivery_type},  #{delivery_location},#{delivery_code}, #{serviceman}, #{create_date})</t>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proprietor_id, delivery_type,delivery_location, delivery_code, serviceman, create_date，status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT into property_manager (proprietor_id, delivery_type, delivery_location, serviceman, create_date,status)  VALUES  (#{proprietor_id},   #{delivery_type},  #{delivery_location},#{delivery_code}, #{serviceman}, #{create_date}, #{status})</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,7 +564,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -702,6 +710,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -711,7 +730,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -787,6 +806,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -847,32 +896,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1204,60 +1229,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="17" thickBot="1">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="30">
         <v>1</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" thickBot="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B4" s="33">
         <v>1</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="32" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="27">
         <v>1</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="26" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1360,60 +1385,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="37" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="37" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1">
       <c r="A5" s="6" t="s">
@@ -1662,38 +1687,38 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="16" customHeight="1">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="28" t="s">
+      <c r="B16" s="36"/>
+      <c r="C16" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="40"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="33"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="43"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1734,70 +1759,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="40" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
     </row>
     <row r="3" spans="1:8" ht="16" customHeight="1">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="36"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="46"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="40" t="s">
+      <c r="B5" s="48"/>
+      <c r="C5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:8" ht="17">
       <c r="A6" s="12" t="s">
@@ -2046,48 +2071,48 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="16" customHeight="1">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39" t="s">
+      <c r="B17" s="48"/>
+      <c r="C17" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2122,70 +2147,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="40" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="36"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="46"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="40" t="s">
+      <c r="B5" s="48"/>
+      <c r="C5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:8" ht="34">
       <c r="A6" s="12" t="s">
@@ -2456,48 +2481,48 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39" t="s">
+      <c r="B18" s="48"/>
+      <c r="C18" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2520,10 +2545,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645DC217-DAFE-FD4D-89FF-ECC31099C583}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2532,70 +2557,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="40" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="36"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="46"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="40" t="s">
+      <c r="B5" s="48"/>
+      <c r="C5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:8" ht="34">
       <c r="A6" s="23" t="s">
@@ -2677,8 +2702,12 @@
       <c r="C9" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="D9" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>13</v>
+      </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="16" t="s">
@@ -2740,7 +2769,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>13</v>
@@ -2773,56 +2802,78 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="38" t="s">
+    <row r="14" spans="1:8" ht="17">
+      <c r="A14" s="55">
+        <v>8</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:H5"/>
-    <mergeCell ref="A14:B17"/>
-    <mergeCell ref="C14:H17"/>
+    <mergeCell ref="A15:B18"/>
+    <mergeCell ref="C15:H18"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="A2:B2"/>

--- a/Database/Database Design for Property Management System.xlsx
+++ b/Database/Database Design for Property Management System.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuwen/IDEAProjects/PMS-Server/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857567AC-B0E3-2D41-ADD0-18B424F57393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642BE7D9-3C64-764F-9435-C8ADE4847238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="2480" windowWidth="18960" windowHeight="16820" activeTab="4" xr2:uid="{1E46E136-B0E1-5C4B-8513-1F9911BEFF5B}"/>
+    <workbookView xWindow="28800" yWindow="2480" windowWidth="18960" windowHeight="16820" activeTab="5" xr2:uid="{1E46E136-B0E1-5C4B-8513-1F9911BEFF5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="report_repairs" sheetId="3" r:id="rId3"/>
     <sheet name="proprietor" sheetId="4" r:id="rId4"/>
     <sheet name="express_delivery" sheetId="5" r:id="rId5"/>
+    <sheet name="pet" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="122">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -469,6 +470,58 @@
   </si>
   <si>
     <t>INSERT into property_manager (proprietor_id, delivery_type, delivery_location, serviceman, create_date,status)  VALUES  (#{proprietor_id},   #{delivery_type},  #{delivery_location},#{delivery_code}, #{serviceman}, #{create_date}, #{status})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>species</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>master_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT into pet (id,  master_id,  name, age, create_date, species)  VALUES  (#{id}, #{master_id} , #{name}, #{age}, #{create_date}, #{species})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id,  master_id,  name, age, create_date, species</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,7 +783,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -836,6 +889,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -894,9 +959,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1229,18 +1291,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
@@ -1371,7 +1433,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1385,60 +1447,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="47" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="47" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1">
       <c r="A5" s="6" t="s">
@@ -1687,38 +1749,38 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="16" customHeight="1">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="38" t="s">
+      <c r="B16" s="40"/>
+      <c r="C16" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="40"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="44"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="43"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="47"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="46"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1759,70 +1821,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="50" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
     </row>
     <row r="3" spans="1:8" ht="16" customHeight="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="38" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="46"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="50" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
     </row>
     <row r="6" spans="1:8" ht="17">
       <c r="A6" s="12" t="s">
@@ -2071,48 +2133,48 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="16" customHeight="1">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="49" t="s">
+      <c r="B17" s="52"/>
+      <c r="C17" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2147,70 +2209,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="50" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="38" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="46"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="50" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
     </row>
     <row r="6" spans="1:8" ht="34">
       <c r="A6" s="12" t="s">
@@ -2481,48 +2543,48 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="49" t="s">
+      <c r="B18" s="52"/>
+      <c r="C18" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2547,8 +2609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645DC217-DAFE-FD4D-89FF-ECC31099C583}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C15" sqref="A1:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2557,70 +2619,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="50" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="38" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="46"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="50" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
     </row>
     <row r="6" spans="1:8" ht="34">
       <c r="A6" s="23" t="s">
@@ -2803,7 +2865,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="17">
-      <c r="A14" s="55">
+      <c r="A14" s="38">
         <v>8</v>
       </c>
       <c r="B14" s="17" t="s">
@@ -2825,48 +2887,48 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="49" t="s">
+      <c r="B15" s="52"/>
+      <c r="C15" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="48"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2884,4 +2946,300 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E519AB85-6B84-144A-A359-53B28AA74D5A}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="50"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="52"/>
+      <c r="C5" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+    </row>
+    <row r="6" spans="1:8" ht="34">
+      <c r="A6" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17">
+      <c r="A7" s="13">
+        <v>1</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17">
+      <c r="A8" s="13">
+        <v>2</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17">
+      <c r="A9" s="13">
+        <v>3</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17">
+      <c r="A10" s="13">
+        <v>4</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17">
+      <c r="A11" s="13">
+        <v>5</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17">
+      <c r="A12" s="13">
+        <v>6</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="52"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="A13:B16"/>
+    <mergeCell ref="C13:H16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:H4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Database/Database Design for Property Management System.xlsx
+++ b/Database/Database Design for Property Management System.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuwen/IDEAProjects/PMS-Server/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642BE7D9-3C64-764F-9435-C8ADE4847238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB40AEB-13DB-544C-A5EF-D4B570D0493E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="2480" windowWidth="18960" windowHeight="16820" activeTab="5" xr2:uid="{1E46E136-B0E1-5C4B-8513-1F9911BEFF5B}"/>
+    <workbookView xWindow="28660" yWindow="2480" windowWidth="18960" windowHeight="16820" activeTab="6" xr2:uid="{1E46E136-B0E1-5C4B-8513-1F9911BEFF5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="proprietor" sheetId="4" r:id="rId4"/>
     <sheet name="express_delivery" sheetId="5" r:id="rId5"/>
     <sheet name="pet" sheetId="6" r:id="rId6"/>
+    <sheet name="car" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="133">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -522,6 +523,48 @@
   </si>
   <si>
     <t>id,  master_id,  name, age, create_date, species</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>license_plate</t>
+  </si>
+  <si>
+    <t>parking_space</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id,  master_id,  license_plate,  parking_space, colour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colour</t>
+  </si>
+  <si>
+    <t>汽车ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车主ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车牌号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT into pet (id,  master_id,  license_plate,  parking_space, colour)  VALUES  (#{id}, #{master_id} , #{ license_plate}, #{parking_space}, #{colour})</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -783,7 +826,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -899,6 +942,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1291,18 +1340,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
@@ -1447,60 +1496,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="51" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="51" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="51" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1">
       <c r="A5" s="6" t="s">
@@ -1749,38 +1798,38 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="16" customHeight="1">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="42" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="46"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="47"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="50"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1821,70 +1870,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="54" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
     </row>
     <row r="3" spans="1:8" ht="16" customHeight="1">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="50"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="54" t="s">
+      <c r="B5" s="54"/>
+      <c r="C5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
     </row>
     <row r="6" spans="1:8" ht="17">
       <c r="A6" s="12" t="s">
@@ -2133,48 +2182,48 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="16" customHeight="1">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="53" t="s">
+      <c r="B17" s="54"/>
+      <c r="C17" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="52"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="52"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="52"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2209,70 +2258,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="54" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="50"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="54" t="s">
+      <c r="B5" s="54"/>
+      <c r="C5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
     </row>
     <row r="6" spans="1:8" ht="34">
       <c r="A6" s="12" t="s">
@@ -2543,48 +2592,48 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="53" t="s">
+      <c r="B18" s="54"/>
+      <c r="C18" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="52"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="52"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="52"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2619,70 +2668,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="54" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="50"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="54" t="s">
+      <c r="B5" s="54"/>
+      <c r="C5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
     </row>
     <row r="6" spans="1:8" ht="34">
       <c r="A6" s="23" t="s">
@@ -2887,48 +2936,48 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="53" t="s">
+      <c r="B15" s="54"/>
+      <c r="C15" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="52"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="52"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="52"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2952,77 +3001,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E519AB85-6B84-144A-A359-53B28AA74D5A}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="54" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="50"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="54" t="s">
+      <c r="B5" s="54"/>
+      <c r="C5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
     </row>
     <row r="6" spans="1:8" ht="34">
       <c r="A6" s="36" t="s">
@@ -3183,48 +3232,48 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="53" t="s">
+      <c r="B13" s="54"/>
+      <c r="C13" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="52"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="52"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="52"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3242,4 +3291,281 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D8F552-E7D6-7842-BFCA-DCAA458229A2}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="52"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="54"/>
+      <c r="C5" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+    </row>
+    <row r="6" spans="1:8" ht="34">
+      <c r="A6" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17">
+      <c r="A7" s="13">
+        <v>1</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17">
+      <c r="A8" s="13">
+        <v>2</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17">
+      <c r="A9" s="13">
+        <v>3</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17">
+      <c r="A10" s="13">
+        <v>4</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17">
+      <c r="A11" s="13">
+        <v>5</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="A12:B15"/>
+    <mergeCell ref="C12:H15"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:H4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Database/Database Design for Property Management System.xlsx
+++ b/Database/Database Design for Property Management System.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuwen/IDEAProjects/PMS-Server/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB40AEB-13DB-544C-A5EF-D4B570D0493E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE92419-4790-9D49-8474-87B4F4FE98C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28660" yWindow="2480" windowWidth="18960" windowHeight="16820" activeTab="6" xr2:uid="{1E46E136-B0E1-5C4B-8513-1F9911BEFF5B}"/>
+    <workbookView xWindow="6440" yWindow="500" windowWidth="18960" windowHeight="16820" activeTab="6" xr2:uid="{1E46E136-B0E1-5C4B-8513-1F9911BEFF5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="2" r:id="rId1"/>
@@ -564,7 +564,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>INSERT into pet (id,  master_id,  license_plate,  parking_space, colour)  VALUES  (#{id}, #{master_id} , #{ license_plate}, #{parking_space}, #{colour})</t>
+    <t>INSERT into car  (id,  master_id,  license_plate,  parking_space, colour)  VALUES  (#{id}, #{master_id} , #{ license_plate}, #{parking_space}, #{colour});</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3298,7 +3298,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C12" sqref="C12:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3567,5 +3567,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Database/Database Design for Property Management System.xlsx
+++ b/Database/Database Design for Property Management System.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuwen/IDEAProjects/PMS-Server/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE92419-4790-9D49-8474-87B4F4FE98C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D50327-03CB-DF43-AC0E-3FD4A3A3A29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="500" windowWidth="18960" windowHeight="16820" activeTab="6" xr2:uid="{1E46E136-B0E1-5C4B-8513-1F9911BEFF5B}"/>
+    <workbookView xWindow="680" yWindow="500" windowWidth="24600" windowHeight="15800" activeTab="3" xr2:uid="{1E46E136-B0E1-5C4B-8513-1F9911BEFF5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="2" r:id="rId1"/>
     <sheet name="property_manager" sheetId="1" r:id="rId2"/>
     <sheet name="report_repairs" sheetId="3" r:id="rId3"/>
-    <sheet name="proprietor" sheetId="4" r:id="rId4"/>
-    <sheet name="express_delivery" sheetId="5" r:id="rId5"/>
-    <sheet name="pet" sheetId="6" r:id="rId6"/>
-    <sheet name="car" sheetId="7" r:id="rId7"/>
+    <sheet name="decoration" sheetId="8" r:id="rId4"/>
+    <sheet name="proprietor" sheetId="4" r:id="rId5"/>
+    <sheet name="express_delivery" sheetId="5" r:id="rId6"/>
+    <sheet name="pet" sheetId="6" r:id="rId7"/>
+    <sheet name="car" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="144">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -565,6 +566,48 @@
   </si>
   <si>
     <t>INSERT into car  (id,  master_id,  license_plate,  parking_space, colour)  VALUES  (#{id}, #{master_id} , #{ license_plate}, #{parking_space}, #{colour});</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>end_time</t>
+  </si>
+  <si>
+    <t>construction_crew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(1023)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工人员信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proprietor_id, start_time , end_time , building , door , construction_crew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT into decoration (id, proprietor_id, start_time , end_time , building , door , construction_crew)  VALUES  (#{id},   #{proprietor_id}, #{start_time}, #{ end_time}, #{building}, #{door}, #{construction_crew});</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -826,7 +869,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -942,6 +985,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1340,18 +1389,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
@@ -1496,60 +1545,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="43" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="53" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="53" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="53" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1">
       <c r="A5" s="6" t="s">
@@ -1798,38 +1847,38 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="16" customHeight="1">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="44" t="s">
+      <c r="B16" s="44"/>
+      <c r="C16" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="46"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="48"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="51"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="52"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1870,70 +1919,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="56" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
     </row>
     <row r="3" spans="1:8" ht="16" customHeight="1">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="44" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="52"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="56" t="s">
+      <c r="B5" s="56"/>
+      <c r="C5" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
     </row>
     <row r="6" spans="1:8" ht="17">
       <c r="A6" s="12" t="s">
@@ -2182,48 +2231,48 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="16" customHeight="1">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="55" t="s">
+      <c r="B17" s="56"/>
+      <c r="C17" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2245,11 +2294,335 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A542054-11C9-2C4C-A570-136871540894}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="56"/>
+      <c r="C5" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+    </row>
+    <row r="6" spans="1:8" ht="34">
+      <c r="A6" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17">
+      <c r="A7" s="13">
+        <v>1</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17">
+      <c r="A8" s="13">
+        <v>2</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17">
+      <c r="A9" s="13">
+        <v>3</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17">
+      <c r="A10" s="13">
+        <v>4</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17">
+      <c r="A11" s="13">
+        <v>5</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17">
+      <c r="A12" s="13">
+        <v>6</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17">
+      <c r="A13" s="13">
+        <v>8</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="56"/>
+      <c r="C14" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="56"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="56"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="56"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="A14:B17"/>
+    <mergeCell ref="C14:H17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:H4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E60CDE2-1BD6-FB41-95C5-7CED08BD3E80}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="176" workbookViewId="0">
-      <selection activeCell="C18" sqref="A1:H21"/>
+    <sheetView zoomScale="110" workbookViewId="0">
+      <selection activeCell="C18" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2258,70 +2631,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="56" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="44" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="52"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="56" t="s">
+      <c r="B5" s="56"/>
+      <c r="C5" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
     </row>
     <row r="6" spans="1:8" ht="34">
       <c r="A6" s="12" t="s">
@@ -2592,48 +2965,48 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="55" t="s">
+      <c r="B18" s="56"/>
+      <c r="C18" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2654,7 +3027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645DC217-DAFE-FD4D-89FF-ECC31099C583}">
   <dimension ref="A1:H18"/>
   <sheetViews>
@@ -2668,70 +3041,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="56" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="44" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="52"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="56" t="s">
+      <c r="B5" s="56"/>
+      <c r="C5" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
     </row>
     <row r="6" spans="1:8" ht="34">
       <c r="A6" s="23" t="s">
@@ -2936,48 +3309,48 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55" t="s">
+      <c r="B15" s="56"/>
+      <c r="C15" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2997,7 +3370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E519AB85-6B84-144A-A359-53B28AA74D5A}">
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -3008,70 +3381,70 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="56" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="44" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="52"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="56" t="s">
+      <c r="B5" s="56"/>
+      <c r="C5" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
     </row>
     <row r="6" spans="1:8" ht="34">
       <c r="A6" s="36" t="s">
@@ -3232,48 +3605,48 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="55" t="s">
+      <c r="B13" s="56"/>
+      <c r="C13" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3293,11 +3666,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D8F552-E7D6-7842-BFCA-DCAA458229A2}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C12" sqref="C12:H15"/>
     </sheetView>
   </sheetViews>
@@ -3307,70 +3680,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="56" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="44" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="52"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="56" t="s">
+      <c r="B5" s="56"/>
+      <c r="C5" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
     </row>
     <row r="6" spans="1:8" ht="34">
       <c r="A6" s="39" t="s">
@@ -3509,48 +3882,48 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="55" t="s">
+      <c r="B12" s="56"/>
+      <c r="C12" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Database/Database Design for Property Management System.xlsx
+++ b/Database/Database Design for Property Management System.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuwen/IDEAProjects/PMS-Server/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D50327-03CB-DF43-AC0E-3FD4A3A3A29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1B6E44-6F6A-F84B-B5DE-7848A6C91DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="500" windowWidth="24600" windowHeight="15800" activeTab="3" xr2:uid="{1E46E136-B0E1-5C4B-8513-1F9911BEFF5B}"/>
+    <workbookView xWindow="9820" yWindow="1940" windowWidth="24600" windowHeight="15800" activeTab="3" xr2:uid="{1E46E136-B0E1-5C4B-8513-1F9911BEFF5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="2" r:id="rId1"/>

--- a/Database/Database Design for Property Management System.xlsx
+++ b/Database/Database Design for Property Management System.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuwen/IDEAProjects/PMS-Server/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1B6E44-6F6A-F84B-B5DE-7848A6C91DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB142BA7-8161-8C4C-9C38-FDC8EB988276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9820" yWindow="1940" windowWidth="24600" windowHeight="15800" activeTab="3" xr2:uid="{1E46E136-B0E1-5C4B-8513-1F9911BEFF5B}"/>
+    <workbookView xWindow="28800" yWindow="1980" windowWidth="33600" windowHeight="18900" activeTab="8" xr2:uid="{1E46E136-B0E1-5C4B-8513-1F9911BEFF5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="2" r:id="rId1"/>
     <sheet name="property_manager" sheetId="1" r:id="rId2"/>
-    <sheet name="report_repairs" sheetId="3" r:id="rId3"/>
-    <sheet name="decoration" sheetId="8" r:id="rId4"/>
-    <sheet name="proprietor" sheetId="4" r:id="rId5"/>
-    <sheet name="express_delivery" sheetId="5" r:id="rId6"/>
-    <sheet name="pet" sheetId="6" r:id="rId7"/>
-    <sheet name="car" sheetId="7" r:id="rId8"/>
+    <sheet name="proprietor" sheetId="4" r:id="rId3"/>
+    <sheet name="report_repairs" sheetId="3" r:id="rId4"/>
+    <sheet name="express_delivery" sheetId="5" r:id="rId5"/>
+    <sheet name="pet" sheetId="6" r:id="rId6"/>
+    <sheet name="car" sheetId="7" r:id="rId7"/>
+    <sheet name="decoration" sheetId="8" r:id="rId8"/>
+    <sheet name="boardcast" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="161">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -608,6 +609,73 @@
   </si>
   <si>
     <t>INSERT into decoration (id, proprietor_id, start_time , end_time , building , door , construction_crew)  VALUES  (#{id},   #{proprietor_id}, #{start_time}, #{ end_time}, #{building}, #{door}, #{construction_crew});</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decoration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boardcast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>create_date</t>
+  </si>
+  <si>
+    <t>创建人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_manager_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_manager_id , importance_level,  content , is_deleted,create_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>importance_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT into boardcast (create_manager_id , importance_level,  content , is_deleted,create_date)
+VALUES(#{create_manager_id},#{importance_level},#{content},#{  is_deleted },#{ create_date })</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -703,7 +771,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -813,38 +881,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -869,7 +907,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -930,12 +968,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -945,108 +995,78 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1058,6 +1078,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1374,142 +1409,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3042AC2-18A0-074F-8344-BBC079A5FFB2}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="215" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A2" zoomScale="215" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="17" thickBot="1">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="34">
         <v>1</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17" thickBot="1">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="36"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="36"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B5" s="34">
         <v>1</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C5" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D5" s="36" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="26" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="36"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="36"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B7" s="25">
         <v>1</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C7" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D7" s="24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="21">
+    <row r="8" spans="1:6">
+      <c r="B8" s="20">
         <v>2</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C8" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D8" s="36" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="22"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="B9" s="34">
+        <v>3</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="B10" s="34">
+        <v>4</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="B11" s="34">
+        <v>5</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="34">
+        <v>6</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="8"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="8"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="8"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1518,9 +1589,12 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C3" location="property_manager!A1" display="property_manager" xr:uid="{2DB35E35-000A-6446-AB7F-1B313D52306E}"/>
-    <hyperlink ref="C5" location="report_repairs!A1" display="report_repairs" xr:uid="{EC3024C8-1F80-B546-95CA-6828A1FB91C1}"/>
-    <hyperlink ref="C4" location="proprietor!A1" display="proprietor" xr:uid="{564FA2AF-4BBB-DB4D-B9FE-8FA62A954D21}"/>
-    <hyperlink ref="C6" location="express_delivery!A1" display="express_delivery" xr:uid="{F0594A43-3E74-6F4B-8DE0-CE2D3A3E927F}"/>
+    <hyperlink ref="C7" location="report_repairs!A1" display="report_repairs" xr:uid="{EC3024C8-1F80-B546-95CA-6828A1FB91C1}"/>
+    <hyperlink ref="C5" location="proprietor!A1" display="proprietor" xr:uid="{564FA2AF-4BBB-DB4D-B9FE-8FA62A954D21}"/>
+    <hyperlink ref="C8" location="express_delivery!A1" display="express_delivery" xr:uid="{F0594A43-3E74-6F4B-8DE0-CE2D3A3E927F}"/>
+    <hyperlink ref="C9" location="pet!A1" display="pet" xr:uid="{55545FEF-392C-9140-ABFB-B0436CAD09A5}"/>
+    <hyperlink ref="C10" location="car!A1" display="car" xr:uid="{BE305B62-CBA8-CB46-9413-F478B3CB4DE5}"/>
+    <hyperlink ref="C11" location="decoration!A1" display="decoration" xr:uid="{4CC77EC3-C80B-1143-AB76-4E349B4BDF1E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1531,7 +1605,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1545,60 +1619,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="55" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="55" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="55" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1">
       <c r="A5" s="6" t="s">
@@ -1847,38 +1921,38 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="16" customHeight="1">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="46" t="s">
+      <c r="B16" s="38"/>
+      <c r="C16" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="48"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="42"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="51"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="45"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="54"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1900,6 +1974,416 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E60CDE2-1BD6-FB41-95C5-7CED08BD3E80}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView zoomScale="110" workbookViewId="0">
+      <selection activeCell="C18" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="48"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="50"/>
+      <c r="C5" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+    </row>
+    <row r="6" spans="1:8" ht="34">
+      <c r="A6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17">
+      <c r="A7" s="13">
+        <v>1</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17">
+      <c r="A8" s="13">
+        <v>2</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17">
+      <c r="A9" s="13">
+        <v>3</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17">
+      <c r="A10" s="13">
+        <v>4</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17">
+      <c r="A11" s="13">
+        <v>5</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17">
+      <c r="A12" s="13">
+        <v>6</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17">
+      <c r="A13" s="13">
+        <v>7</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17">
+      <c r="A14" s="13">
+        <v>8</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17">
+      <c r="A15" s="13">
+        <v>9</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17">
+      <c r="A16" s="13">
+        <v>9</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17">
+      <c r="A17" s="13">
+        <v>10</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="50"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="A18:B21"/>
+    <mergeCell ref="C18:H21"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:H4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9477A7A3-655E-6A4D-B145-0712012DFE80}">
   <dimension ref="A1:H20"/>
   <sheetViews>
@@ -1919,70 +2403,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="58" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:8" ht="16" customHeight="1">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="46" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="58" t="s">
+      <c r="B5" s="50"/>
+      <c r="C5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
     </row>
     <row r="6" spans="1:8" ht="17">
       <c r="A6" s="12" t="s">
@@ -2231,48 +2715,48 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="16" customHeight="1">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="57" t="s">
+      <c r="B17" s="50"/>
+      <c r="C17" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="56"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="56"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="56"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2293,11 +2777,928 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645DC217-DAFE-FD4D-89FF-ECC31099C583}">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C15" sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="48"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="50"/>
+      <c r="C5" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+    </row>
+    <row r="6" spans="1:8" ht="34">
+      <c r="A6" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17">
+      <c r="A7" s="13">
+        <v>1</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17">
+      <c r="A8" s="13">
+        <v>2</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17">
+      <c r="A9" s="13">
+        <v>3</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17">
+      <c r="A10" s="13">
+        <v>4</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17">
+      <c r="A11" s="13">
+        <v>5</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17">
+      <c r="A12" s="13">
+        <v>6</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17">
+      <c r="A13" s="13">
+        <v>7</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17">
+      <c r="A14" s="29">
+        <v>8</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="A15:B18"/>
+    <mergeCell ref="C15:H18"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:H4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E519AB85-6B84-144A-A359-53B28AA74D5A}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="48"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="50"/>
+      <c r="C5" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+    </row>
+    <row r="6" spans="1:8" ht="34">
+      <c r="A6" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17">
+      <c r="A7" s="13">
+        <v>1</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17">
+      <c r="A8" s="13">
+        <v>2</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17">
+      <c r="A9" s="13">
+        <v>3</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17">
+      <c r="A10" s="13">
+        <v>4</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17">
+      <c r="A11" s="13">
+        <v>5</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17">
+      <c r="A12" s="13">
+        <v>6</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="50"/>
+      <c r="C13" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="A13:B16"/>
+    <mergeCell ref="C13:H16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:H4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D8F552-E7D6-7842-BFCA-DCAA458229A2}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="48"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="50"/>
+      <c r="C5" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+    </row>
+    <row r="6" spans="1:8" ht="34">
+      <c r="A6" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17">
+      <c r="A7" s="13">
+        <v>1</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17">
+      <c r="A8" s="13">
+        <v>2</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17">
+      <c r="A9" s="13">
+        <v>3</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17">
+      <c r="A10" s="13">
+        <v>4</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17">
+      <c r="A11" s="13">
+        <v>5</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="50"/>
+      <c r="C12" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="A12:B15"/>
+    <mergeCell ref="C12:H15"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:H4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A542054-11C9-2C4C-A570-136871540894}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C14" sqref="C14:H17"/>
     </sheetView>
   </sheetViews>
@@ -2309,94 +3710,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="58" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="46" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="58" t="s">
+      <c r="B5" s="50"/>
+      <c r="C5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
     </row>
     <row r="6" spans="1:8" ht="34">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="32" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2404,16 +3805,16 @@
       <c r="A7" s="13">
         <v>1</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="42" t="s">
+      <c r="D7" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="33" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="15"/>
@@ -2426,16 +3827,16 @@
       <c r="A8" s="13">
         <v>2</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="42" t="s">
+      <c r="D8" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="33" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="15"/>
@@ -2448,16 +3849,16 @@
       <c r="A9" s="13">
         <v>3</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="42" t="s">
+      <c r="D9" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="33" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="15"/>
@@ -2473,13 +3874,13 @@
       <c r="B10" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="33" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="18"/>
@@ -2495,13 +3896,13 @@
       <c r="B11" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="42" t="s">
+      <c r="D11" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="33" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="18"/>
@@ -2517,13 +3918,13 @@
       <c r="B12" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="33" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="18"/>
@@ -2536,16 +3937,16 @@
       <c r="A13" s="13">
         <v>8</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="42" t="s">
+      <c r="D13" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="33" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="15"/>
@@ -2555,48 +3956,48 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="57" t="s">
+      <c r="B14" s="50"/>
+      <c r="C14" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="56"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="56"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="56"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2617,1329 +4018,284 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E60CDE2-1BD6-FB41-95C5-7CED08BD3E80}">
-  <dimension ref="A1:H21"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750BA51C-9BED-EB42-950E-6E2121D8500D}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0">
-      <selection activeCell="C18" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
+      <c r="A4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-    </row>
-    <row r="6" spans="1:8" ht="34">
-      <c r="A6" s="12" t="s">
+      <c r="B8" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B9" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="7">
         <v>5</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="B10" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="7">
         <v>6</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="17">
-      <c r="A7" s="13">
-        <v>1</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17">
-      <c r="A8" s="13">
-        <v>2</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="17">
-      <c r="A9" s="13">
-        <v>3</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17">
-      <c r="A10" s="13">
-        <v>4</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="17">
-      <c r="A11" s="13">
-        <v>5</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17">
-      <c r="A12" s="13">
-        <v>6</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17">
-      <c r="A13" s="13">
-        <v>7</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="17">
-      <c r="A14" s="13">
-        <v>8</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="17">
-      <c r="A15" s="13">
-        <v>9</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="17">
-      <c r="A16" s="13">
-        <v>9</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="17">
-      <c r="A17" s="13">
-        <v>10</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="56" t="s">
+      <c r="B11" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="56"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="56"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="A18:B21"/>
-    <mergeCell ref="C18:H21"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:H14"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:H4"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645DC217-DAFE-FD4D-89FF-ECC31099C583}">
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C15" sqref="A1:H18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-    </row>
-    <row r="6" spans="1:8" ht="34">
-      <c r="A6" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="17">
-      <c r="A7" s="13">
-        <v>1</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17">
-      <c r="A8" s="13">
-        <v>2</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="17">
-      <c r="A9" s="13">
-        <v>3</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17">
-      <c r="A10" s="13">
-        <v>4</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="17">
-      <c r="A11" s="13">
-        <v>5</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17">
-      <c r="A12" s="13">
-        <v>6</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17">
-      <c r="A13" s="13">
-        <v>7</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="17">
-      <c r="A14" s="38">
-        <v>8</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="56"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="56"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="56"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="A15:B18"/>
-    <mergeCell ref="C15:H18"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:H4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E519AB85-6B84-144A-A359-53B28AA74D5A}">
-  <dimension ref="A1:H16"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-    </row>
-    <row r="6" spans="1:8" ht="34">
-      <c r="A6" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="17">
-      <c r="A7" s="13">
-        <v>1</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17">
-      <c r="A8" s="13">
-        <v>2</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="17">
-      <c r="A9" s="13">
-        <v>3</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17">
-      <c r="A10" s="13">
-        <v>4</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="17">
-      <c r="A11" s="13">
-        <v>5</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17">
-      <c r="A12" s="13">
-        <v>6</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="56"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="56"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="56"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="A13:B16"/>
-    <mergeCell ref="C13:H16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:H4"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D8F552-E7D6-7842-BFCA-DCAA458229A2}">
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:H15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-    </row>
-    <row r="6" spans="1:8" ht="34">
-      <c r="A6" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="17">
-      <c r="A7" s="13">
-        <v>1</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17">
-      <c r="A8" s="13">
-        <v>2</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="17">
-      <c r="A9" s="13">
-        <v>3</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17">
-      <c r="A10" s="13">
-        <v>4</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="17">
-      <c r="A11" s="13">
-        <v>5</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="56"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="56"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="56"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="A12:B15"/>
-    <mergeCell ref="C12:H15"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:H4"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/Database/Database Design for Property Management System.xlsx
+++ b/Database/Database Design for Property Management System.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuwen/IDEAProjects/PMS-Server/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB142BA7-8161-8C4C-9C38-FDC8EB988276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC9D03D-34B5-DD43-8177-D6734D56C7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="1980" windowWidth="33600" windowHeight="18900" activeTab="8" xr2:uid="{1E46E136-B0E1-5C4B-8513-1F9911BEFF5B}"/>
+    <workbookView xWindow="30220" yWindow="2480" windowWidth="24600" windowHeight="15800" xr2:uid="{1E46E136-B0E1-5C4B-8513-1F9911BEFF5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="pet" sheetId="6" r:id="rId6"/>
     <sheet name="car" sheetId="7" r:id="rId7"/>
     <sheet name="decoration" sheetId="8" r:id="rId8"/>
-    <sheet name="boardcast" sheetId="9" r:id="rId9"/>
+    <sheet name="broadcast" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="164">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -628,10 +628,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>boardcast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通知表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -674,8 +670,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>INSERT into boardcast (create_manager_id , importance_level,  content , is_deleted,create_date)
+    <t>broadcast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT into broadcast (create_manager_id , importance_level,  content , is_deleted,create_date)
 VALUES(#{create_manager_id},#{importance_level},#{content},#{  is_deleted },#{ create_date })</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int(10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1411,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3042AC2-18A0-074F-8344-BBC079A5FFB2}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="215" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="215" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1545,18 +1557,18 @@
       <c r="B12" s="34">
         <v>6</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="D12" s="61" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="8"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="60"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8"/>
@@ -1595,6 +1607,7 @@
     <hyperlink ref="C9" location="pet!A1" display="pet" xr:uid="{55545FEF-392C-9140-ABFB-B0436CAD09A5}"/>
     <hyperlink ref="C10" location="car!A1" display="car" xr:uid="{BE305B62-CBA8-CB46-9413-F478B3CB4DE5}"/>
     <hyperlink ref="C11" location="decoration!A1" display="decoration" xr:uid="{4CC77EC3-C80B-1143-AB76-4E349B4BDF1E}"/>
+    <hyperlink ref="C12" location="broadcast!A1" display="broadcast" xr:uid="{7BBDFCEA-DEB5-E242-8402-3907C73DDD0F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4022,8 +4035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750BA51C-9BED-EB42-950E-6E2121D8500D}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4040,7 +4053,7 @@
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="39" t="s">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c r="D1" s="39"/>
       <c r="E1" s="39"/>
@@ -4068,7 +4081,7 @@
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
@@ -4143,10 +4156,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="D7" s="36" t="s">
         <v>13</v>
@@ -4157,7 +4170,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4165,10 +4178,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>13</v>
@@ -4179,7 +4192,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4187,10 +4200,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="D9" s="36" t="s">
         <v>13</v>
@@ -4201,7 +4214,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4209,10 +4222,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>13</v>
@@ -4223,7 +4236,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4231,10 +4244,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>13</v>
@@ -4297,5 +4310,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>